--- a/app/tables/Ethiopia_members/forms/Ethiopia_Section91/Ethiopia_Section91.xlsx
+++ b/app/tables/Ethiopia_members/forms/Ethiopia_Section91/Ethiopia_Section91.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>where_medical_attention</t>
   </si>
   <si>
-    <t>Where did {{name}} receive or consult medical assistance primarily?</t>
-  </si>
-  <si>
     <t>choice_list_name</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>Section 9.1</t>
+  </si>
+  <si>
+    <t>Where did {{data.name}} receive or consult medical assistance primarily?</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -972,7 +972,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="30" customFormat="1">
       <c r="A1" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>0</v>
@@ -983,14 +983,14 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
@@ -1039,13 +1039,13 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1076,10 +1076,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="30" customFormat="1">
       <c r="A1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -1087,79 +1087,79 @@
     </row>
     <row r="2" spans="1:3" s="31" customFormat="1">
       <c r="A2" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="31" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="31" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="31" customFormat="1">
       <c r="A5" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="31" customFormat="1">
       <c r="A6" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="31" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="31" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1226,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1264,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>25</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>41</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>42</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>47</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>50</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>51</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>52</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>13</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>54</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>23</v>
@@ -1581,7 +1581,7 @@
     <row r="33" spans="1:3">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>3</v>
@@ -1590,7 +1590,7 @@
     <row r="34" spans="1:3">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>17</v>
@@ -1599,7 +1599,7 @@
     <row r="35" spans="1:3">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>23</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>33</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>34</v>
@@ -1683,10 +1683,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>23</v>
@@ -1695,7 +1695,7 @@
     <row r="45" spans="1:3">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>17</v>
@@ -1704,7 +1704,7 @@
     <row r="46" spans="1:3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>3</v>
@@ -1713,7 +1713,7 @@
     <row r="47" spans="1:3">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>17</v>
@@ -1722,7 +1722,7 @@
     <row r="48" spans="1:3">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>17</v>
@@ -1731,7 +1731,7 @@
     <row r="49" spans="1:3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>17</v>
@@ -1740,7 +1740,7 @@
     <row r="50" spans="1:3">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>17</v>
@@ -1749,7 +1749,7 @@
     <row r="51" spans="1:3">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>17</v>
@@ -1758,7 +1758,7 @@
     <row r="52" spans="1:3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>17</v>
@@ -1767,7 +1767,7 @@
     <row r="53" spans="1:3">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>3</v>
@@ -1776,7 +1776,7 @@
     <row r="54" spans="1:3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>17</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>23</v>
@@ -1796,7 +1796,7 @@
     <row r="56" spans="1:3">
       <c r="A56" s="27"/>
       <c r="B56" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>17</v>
@@ -1805,7 +1805,7 @@
     <row r="57" spans="1:3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>3</v>
@@ -1814,7 +1814,7 @@
     <row r="58" spans="1:3">
       <c r="A58" s="27"/>
       <c r="B58" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>17</v>
@@ -1823,7 +1823,7 @@
     <row r="59" spans="1:3">
       <c r="A59" s="27"/>
       <c r="B59" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>17</v>
@@ -1832,7 +1832,7 @@
     <row r="60" spans="1:3">
       <c r="A60" s="27"/>
       <c r="B60" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>3</v>
@@ -1841,7 +1841,7 @@
     <row r="61" spans="1:3">
       <c r="A61" s="27"/>
       <c r="B61" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>17</v>
@@ -1850,7 +1850,7 @@
     <row r="62" spans="1:3">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>17</v>
@@ -1859,7 +1859,7 @@
     <row r="63" spans="1:3">
       <c r="A63" s="27"/>
       <c r="B63" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>3</v>
@@ -1868,7 +1868,7 @@
     <row r="64" spans="1:3">
       <c r="A64" s="27"/>
       <c r="B64" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>17</v>
